--- a/public/Hindustan Petroleum Corporation Ltd_Social.xlsx
+++ b/public/Hindustan Petroleum Corporation Ltd_Social.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jithesh\Downloads\Hindustan Petroleum Corporation Ltd\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6750"/>
   </bookViews>
@@ -22,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data collection sheet'!$A$1:$AK$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="32000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +33,7 @@
     <author>tc={9A4906D5-1989-7049-9006-9FC173611B69}</author>
   </authors>
   <commentList>
-    <comment ref="E146" authorId="0" shapeId="0">
+    <comment ref="E146" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E367" authorId="1" shapeId="0">
+    <comment ref="E367" authorId="1">
       <text>
         <r>
           <rPr>
@@ -3764,7 +3759,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="dd/mmm/yyyy"/>
@@ -4975,14 +4970,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Standalone datapoints"/>
-      <sheetName val="Derived Datapoints"/>
       <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5283,7 +5274,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5305,7 +5296,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
@@ -8364,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="12" t="e">
-        <f>COUNTIFS(AA:AA, "Error accepted", X:X,AE5)/$AF$16</f>
+        <f>COUNTIFS(AA:AA, "Error accepted",X:X,AE5)/$AF$16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI5" s="2" t="s">
@@ -8459,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="12" t="e">
-        <f t="shared" ref="AH6:AH15" si="1">COUNTIFS(AA:AA, "Error accepted", X:X,AE6)/$AF$16</f>
+        <f t="shared" ref="AH6:AH15" si="1">COUNTIFS(AA:AA, "Error accepted",X:X,AE6)/$AF$16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AI6" s="2" t="s">
@@ -35790,7 +35781,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\PC\Downloads\[Hindustan Petroleum Corporation Ltd_Social-05-03-20.xlsx]Sheet3'!#REF!</xm:f>
+            <xm:f>[1]Sheet3!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>Q202:T205 Q416:T416 Q421:T426 Q224:Q226 S224:T226 T233:T234 T236 Q228:Q230 Q233:S236 R223:R230 S228:T230</xm:sqref>
         </x14:dataValidation>
